--- a/AccuracyAssessment.xlsx
+++ b/AccuracyAssessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibsit-my.sharepoint.com/personal/m_ferrari092_studenti_unibs_it/Documents/University/Cultura Personale/BlockStartStopwatchArduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="11_AD4D5CB4E552A5DACE1C6411B01E5D985ADEDD89" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5DE8329-A755-46A0-A9C5-5598C3464D07}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="11_AD4D5CB4E552A5DACE1C6411B01E5D985ADEDD89" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56D8695F-F4CF-402B-B96E-95429C8C34D4}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Run number</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Std. Dev.</t>
   </si>
   <si>
-    <t>Michele</t>
-  </si>
-  <si>
     <t>SSE</t>
   </si>
   <si>
@@ -107,13 +104,25 @@
   </si>
   <si>
     <t>Sum of Squared Errors</t>
+  </si>
+  <si>
+    <t>Not meaningful at all since velocities are very different</t>
+  </si>
+  <si>
+    <t>(Benchmark - System)</t>
+  </si>
+  <si>
+    <t>MEAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,9 +154,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,37 +212,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,36 +227,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -547,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,404 +550,527 @@
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5.16</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5.14</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.58</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3.63</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.94</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="J3" s="5">
+        <v>6.73</v>
+      </c>
+      <c r="K3" s="7">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5.33</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.08</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.66</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3.63</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2.73</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5.45</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5.35</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.33</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3.41</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3.51</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3.51</v>
+      </c>
+      <c r="J5" s="5">
+        <v>6.73</v>
+      </c>
+      <c r="K5" s="7">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4.72</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.62</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3.51</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.84</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3.87</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3.33</v>
+      </c>
+      <c r="J6" s="5">
+        <v>6.58</v>
+      </c>
+      <c r="K6" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5.53</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5.38</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5.84</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5.84</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3.43</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3.33</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3.65</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3.66</v>
+      </c>
+      <c r="J7" s="5">
+        <v>8</v>
+      </c>
+      <c r="K7" s="7">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
+        <f>AVERAGE(B3:B7)</f>
+        <v>5.2540000000000004</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" ref="C9:K9" si="0">AVERAGE(C3:C7)</f>
+        <v>5.1579999999999995</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>4.8520000000000003</v>
+      </c>
+      <c r="E9" s="13">
+        <f>AVERAGE(E3:E7)</f>
+        <v>4.8339999999999996</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>3.6360000000000001</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>3.6640000000000001</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>3.6320000000000001</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>3.5939999999999999</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>6.1540000000000008</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="0"/>
+        <v>6.1340000000000003</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13">
+        <f>_xlfn.STDEV.S(B3:B7)</f>
+        <v>0.28953410852609418</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" ref="C10:K10" si="1">_xlfn.STDEV.S(C3:C7)</f>
+        <v>0.26461292485439941</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.79405289496354936</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.83682734180953144</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.27987497208575107</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.31333687941255811</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20290391814846753</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.18902380802428032</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9985319612155314</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9220119666640962</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" cm="1">
+        <f t="array" ref="B12">AVERAGE(ABS(C3:C7-B3:B7))</f>
+        <v>9.6000000000000266E-2</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" cm="1">
+        <f t="array" ref="D12">AVERAGE(ABS(E3:E7-D3:D7))</f>
+        <v>3.4000000000000162E-2</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" cm="1">
+        <f t="array" ref="F12">AVERAGE(ABS(G3:G7-F3:F7))</f>
+        <v>6.800000000000006E-2</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" cm="1">
+        <f t="array" ref="H12">AVERAGE(ABS(I3:I7-H3:H7))</f>
+        <v>4.2000000000000079E-2</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" cm="1">
+        <f t="array" ref="J12">AVERAGE(ABS(K3:K7-J3:J7))</f>
+        <v>7.6000000000000248E-2</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="15">
+        <f>AVERAGE(B12:K12)</f>
+        <v>6.3200000000000159E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="e">
-        <f>AVERAGE(B4:B8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="4" t="e">
-        <f t="shared" ref="C10:K10" si="0">AVERAGE(C4:C8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="4" t="e">
-        <f>AVERAGE(E4:E8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="e">
-        <f>_xlfn.STDEV.S(B4:B8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="4" t="e">
-        <f t="shared" ref="C11:K11" si="1">_xlfn.STDEV.S(C4:C8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" cm="1">
-        <f t="array" ref="B13">AVERAGE(ABS(C4:C8-B4:B8))</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" cm="1">
-        <f t="array" ref="D13">AVERAGE(ABS(E4:E8-D4:D8))</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" cm="1">
-        <f t="array" ref="F13">AVERAGE(ABS(G4:G8-F4:F8))</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" cm="1">
-        <f t="array" ref="H13">AVERAGE(ABS(I4:I8-H4:H8))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9" cm="1">
-        <f t="array" ref="J13">AVERAGE(ABS(K4:K8-J4:J8))</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="9"/>
+      <c r="B13" s="11" cm="1">
+        <f t="array" ref="B13">SUM((C3:C7-B3:B7)^2)</f>
+        <v>5.6200000000000208E-2</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" cm="1">
+        <f t="array" ref="D13">SUM((E3:E7-D3:D7)^2)</f>
+        <v>1.4100000000000092E-2</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" cm="1">
+        <f t="array" ref="F13">SUM((G3:G7-F3:F7)^2)</f>
+        <v>2.6200000000000036E-2</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" cm="1">
+        <f t="array" ref="H13">SUM((I3:I7-H3:H7)^2)</f>
+        <v>1.5900000000000015E-2</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" cm="1">
+        <f t="array" ref="J13">SUM((K3:K7-J3:J7)^2)</f>
+        <v>3.8600000000000217E-2</v>
+      </c>
+      <c r="K13" s="11"/>
       <c r="M13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="15">
+        <f>AVERAGE(B13:K13)</f>
+        <v>3.0200000000000116E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9">
-        <f>(C4-B4)^2</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
-        <f>(E4-D4)^2</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
-        <f>(G4-F4)^2</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9">
-        <f t="shared" ref="H14" si="2">(I4-H4)^2</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9">
-        <f t="shared" ref="J14" si="3">(K4-J4)^2</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" cm="1">
+        <f t="array" ref="B14">AVERAGE(C3:C7-B3:B7)</f>
+        <v>-9.6000000000000266E-2</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" cm="1">
+        <f t="array" ref="D14">AVERAGE(E3:E7-D3:D7)</f>
+        <v>-1.8000000000000148E-2</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" cm="1">
+        <f t="array" ref="F14">AVERAGE(G3:G7-F3:F7)</f>
+        <v>2.8000000000000025E-2</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" cm="1">
+        <f t="array" ref="H14">AVERAGE(I3:I7-H3:H7)</f>
+        <v>-3.7999999999999992E-2</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" cm="1">
+        <f t="array" ref="J14">AVERAGE(K3:K7-J3:J7)</f>
+        <v>-2.0000000000000195E-2</v>
+      </c>
+      <c r="K14" s="10"/>
       <c r="M14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9" cm="1">
-        <f t="array" ref="B15">AVERAGE(C4:C8-B4:B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" cm="1">
-        <f t="array" ref="D15">AVERAGE(E4:E8-D4:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" cm="1">
-        <f t="array" ref="F15">AVERAGE(G4:G8-F4:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" cm="1">
-        <f t="array" ref="H15">AVERAGE(I4:I8-H4:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9" cm="1">
-        <f t="array" ref="J15">AVERAGE(K4:K8-J4:J8)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" cm="1">
-        <f t="array" ref="B16">_xlfn.STDEV.S(C4:C8-B4:B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" cm="1">
-        <f t="array" ref="D16">_xlfn.STDEV.S(E4:E8-D4:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" cm="1">
-        <f t="array" ref="F16">_xlfn.STDEV.S(G4:G8-F4:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" cm="1">
-        <f t="array" ref="H16">_xlfn.STDEV.S(I4:I8-H4:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9" cm="1">
-        <f t="array" ref="J16">_xlfn.STDEV.S(K4:K8-J4:J8)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="9"/>
+      <c r="B15" s="11" cm="1">
+        <f t="array" ref="B15">_xlfn.STDEV.S(C3:C7-B3:B7)</f>
+        <v>5.0299105359837053E-2</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" cm="1">
+        <f t="array" ref="D15">_xlfn.STDEV.S(E3:E7-D3:D7)</f>
+        <v>5.5856960175075909E-2</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" cm="1">
+        <f t="array" ref="F15">_xlfn.STDEV.S(G3:G7-F3:F7)</f>
+        <v>7.4632432628181214E-2</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" cm="1">
+        <f t="array" ref="H15">_xlfn.STDEV.S(I3:I7-H3:H7)</f>
+        <v>4.6583258795408512E-2</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" cm="1">
+        <f t="array" ref="J15">_xlfn.STDEV.S(K3:K7-J3:J7)</f>
+        <v>9.5655632348545197E-2</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="O15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="15">
+        <f>AVERAGE(B15:K15)</f>
+        <v>6.4605477861409577E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+  <mergeCells count="25">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
